--- a/PostOfficeWebApp/PostOffice.Web/Assets/admin/template/task (Autosaved).xlsx
+++ b/PostOfficeWebApp/PostOffice.Web/Assets/admin/template/task (Autosaved).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thientt.bdst\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\postoffice-v1\PostOfficeWebApp\PostOffice.Web\Assets\admin\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,28 +35,28 @@
     <t>Ngày giao dịch</t>
   </si>
   <si>
+    <t>Tên khách hàng</t>
+  </si>
+  <si>
+    <t>kh3</t>
+  </si>
+  <si>
+    <t>khách hàng 3</t>
+  </si>
+  <si>
+    <t>tk 3</t>
+  </si>
+  <si>
+    <t>Mã nhân viên</t>
+  </si>
+  <si>
+    <t>st1</t>
+  </si>
+  <si>
+    <t>Số sổ</t>
+  </si>
+  <si>
     <t>Số tài khoản</t>
-  </si>
-  <si>
-    <t>Tên khách hàng</t>
-  </si>
-  <si>
-    <t>kh3</t>
-  </si>
-  <si>
-    <t>khách hàng 3</t>
-  </si>
-  <si>
-    <t>tk 3</t>
-  </si>
-  <si>
-    <t>Mã khách hàng</t>
-  </si>
-  <si>
-    <t>Mã nhân viên</t>
-  </si>
-  <si>
-    <t>st1</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,13 +450,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
@@ -477,13 +477,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="5">
         <v>42798</v>
@@ -495,7 +495,7 @@
         <v>7.0199999999999999E-2</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2" s="6"/>
     </row>
